--- a/app/static/datas/datas.xlsx
+++ b/app/static/datas/datas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b40b33bde7a406e5/Documentos/GitHub/finance-manager-flask-project/app/static/datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F22367B8-584B-4095-BBF6-1A5C795E651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="14_{F22367B8-584B-4095-BBF6-1A5C795E651D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{987A60A7-B64D-4E43-9A0A-74C269DFE782}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entrada_Saida_Real" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="Categoria" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -661,7 +660,7 @@
   </sheetPr>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1345,579 +1344,577 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I58"/>
+  <dimension ref="B1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11">
+    <row r="2" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="11">
         <v>45261</v>
       </c>
-      <c r="B2" s="13">
+      <c r="C2" s="13">
         <v>22091.48</v>
       </c>
-      <c r="C2" s="13">
+      <c r="D2" s="13">
         <v>24187.61</v>
       </c>
-      <c r="D2" s="13">
-        <f t="shared" ref="D2:D21" si="0">C2-B2</f>
+      <c r="E2" s="13">
+        <f t="shared" ref="E2:E21" si="0">D2-C2</f>
         <v>2096.130000000001</v>
       </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="G2" s="13"/>
+    </row>
+    <row r="3" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="11">
         <v>45292</v>
       </c>
-      <c r="B3" s="13">
+      <c r="C3" s="13">
         <v>24191.48</v>
       </c>
-      <c r="C3" s="13">
+      <c r="D3" s="13">
         <v>26654.46</v>
       </c>
-      <c r="D3" s="13">
+      <c r="E3" s="13">
         <f t="shared" si="0"/>
         <v>2462.9799999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11">
+    <row r="4" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11">
         <v>45323</v>
       </c>
-      <c r="B4" s="13">
+      <c r="C4" s="13">
         <v>25591.48</v>
       </c>
-      <c r="C4" s="13">
+      <c r="D4" s="13">
         <v>27924.559999999998</v>
       </c>
-      <c r="D4" s="13">
+      <c r="E4" s="13">
         <f t="shared" si="0"/>
         <v>2333.0799999999981</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row r="5" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="11">
         <v>45352</v>
       </c>
-      <c r="B5" s="13">
+      <c r="C5" s="13">
         <v>27841.48</v>
       </c>
-      <c r="C5" s="13">
+      <c r="D5" s="13">
         <v>31306.720000000001</v>
       </c>
-      <c r="D5" s="13">
+      <c r="E5" s="13">
         <f t="shared" si="0"/>
         <v>3465.2400000000016</v>
       </c>
-      <c r="E5" s="23"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11">
+      <c r="F5" s="23"/>
+      <c r="G5" s="13"/>
+    </row>
+    <row r="6" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="11">
         <v>45383</v>
       </c>
-      <c r="B6" s="13">
+      <c r="C6" s="13">
         <v>29291.48</v>
       </c>
-      <c r="C6" s="13">
+      <c r="D6" s="13">
         <v>32648.13</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
         <f t="shared" si="0"/>
         <v>3356.6500000000015</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+      <c r="F6" s="23"/>
+      <c r="G6" s="13"/>
+    </row>
+    <row r="7" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11">
         <v>45413</v>
       </c>
-      <c r="B7" s="13">
+      <c r="C7" s="13">
         <v>30291.48</v>
       </c>
-      <c r="C7" s="13">
+      <c r="D7" s="13">
         <v>33558.33</v>
       </c>
-      <c r="D7" s="13">
+      <c r="E7" s="13">
         <f t="shared" si="0"/>
         <v>3266.8500000000022</v>
       </c>
-      <c r="E7" s="23"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="H7" s="13"/>
+    </row>
+    <row r="8" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="11">
         <v>45444</v>
       </c>
-      <c r="B8" s="13">
+      <c r="C8" s="13">
         <v>32291.48</v>
       </c>
-      <c r="C8" s="13">
+      <c r="D8" s="13">
         <v>35754.21</v>
       </c>
-      <c r="D8" s="13">
+      <c r="E8" s="13">
         <f t="shared" si="0"/>
         <v>3462.7299999999996</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+      <c r="H8" s="13"/>
+    </row>
+    <row r="9" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="11">
         <v>45474</v>
       </c>
-      <c r="B9" s="13">
+      <c r="C9" s="13">
         <v>32291.48</v>
       </c>
-      <c r="C9" s="13">
+      <c r="D9" s="13">
         <v>36436.239999999998</v>
       </c>
-      <c r="D9" s="13">
+      <c r="E9" s="13">
         <f t="shared" si="0"/>
         <v>4144.7599999999984</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="13"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="13"/>
-    </row>
-    <row r="10" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11">
+      <c r="H9" s="13"/>
+    </row>
+    <row r="10" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="11">
         <v>45505</v>
       </c>
-      <c r="B10" s="13">
+      <c r="C10" s="13">
         <v>32291.48</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D10" s="13">
         <v>36069.870000000003</v>
       </c>
-      <c r="D10" s="13">
+      <c r="E10" s="13">
         <f t="shared" si="0"/>
         <v>3778.3900000000031</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="13"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="11">
         <v>45536</v>
       </c>
-      <c r="B11" s="13">
+      <c r="C11" s="13">
         <v>32941.479999999996</v>
       </c>
-      <c r="C11" s="13">
+      <c r="D11" s="13">
         <v>36512.019999999997</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="13">
         <f t="shared" si="0"/>
         <v>3570.5400000000009</v>
       </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="13"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11">
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="11">
         <v>45566</v>
       </c>
-      <c r="B12" s="13">
+      <c r="C12" s="13">
         <v>34741.479999999996</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D12" s="13">
         <v>38484.979999999996</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="13">
         <f t="shared" si="0"/>
         <v>3743.5</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="13"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="11">
         <v>45597</v>
       </c>
-      <c r="B13" s="13">
+      <c r="C13" s="13">
         <v>37469.949999999997</v>
       </c>
-      <c r="C13" s="13">
+      <c r="D13" s="13">
         <v>41236.68</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="13">
         <f t="shared" si="0"/>
         <v>3766.7300000000032</v>
       </c>
-      <c r="E13" s="23"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
+      <c r="F13" s="23"/>
+      <c r="G13" s="13"/>
+    </row>
+    <row r="14" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="11">
         <v>45627</v>
       </c>
-      <c r="B14" s="13">
+      <c r="C14" s="13">
         <v>41976.29</v>
       </c>
-      <c r="C14" s="13">
+      <c r="D14" s="13">
         <v>45027.87</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="13">
         <f t="shared" si="0"/>
         <v>3051.5800000000017</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+      <c r="F14" s="23"/>
+      <c r="G14" s="13"/>
+    </row>
+    <row r="15" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
         <v>45658</v>
       </c>
-      <c r="B15" s="13">
+      <c r="C15" s="13">
         <v>47606.06</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D15" s="13">
         <v>50694.25</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="13">
         <f t="shared" si="0"/>
         <v>3088.1900000000023</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
+      <c r="F15" s="23"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
         <v>45689</v>
       </c>
-      <c r="B16" s="13">
+      <c r="C16" s="13">
         <v>51556.06</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D16" s="13">
         <v>54116.95</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="13">
         <f t="shared" si="0"/>
         <v>2560.8899999999994</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
         <v>45717</v>
       </c>
-      <c r="B17" s="13">
+      <c r="C17" s="13">
         <v>55797.66</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D17" s="13">
         <v>59175.87</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="13">
         <f t="shared" si="0"/>
         <v>3378.2099999999991</v>
       </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11">
+      <c r="F17" s="24"/>
+      <c r="G17" s="13"/>
+    </row>
+    <row r="18" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
         <v>45748</v>
       </c>
-      <c r="B18" s="13">
+      <c r="C18" s="13">
         <v>63797.66</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="13">
         <v>67800.639999999999</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="13">
         <f t="shared" si="0"/>
         <v>4002.9799999999959</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+      <c r="F18" s="24"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
         <v>45778</v>
       </c>
-      <c r="B19" s="13">
+      <c r="C19" s="13">
         <v>68697.66</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D19" s="13">
         <v>75752.88</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <f t="shared" si="0"/>
         <v>7055.2200000000012</v>
       </c>
-      <c r="E19" s="24"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="11">
+      <c r="F19" s="24"/>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
         <v>45809</v>
       </c>
-      <c r="B20" s="13">
+      <c r="C20" s="13">
         <v>75797.66</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D20" s="13">
         <v>82763.11</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="13">
         <f t="shared" si="0"/>
         <v>6965.4499999999971</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+      <c r="F20" s="24"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
         <v>45839</v>
       </c>
-      <c r="B21" s="13">
+      <c r="C21" s="13">
         <v>77797.66</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D21" s="13">
         <v>86677.53</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="13">
         <f t="shared" si="0"/>
         <v>8879.8699999999953</v>
       </c>
-      <c r="E21" s="24"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D22" s="13"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="13"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="20"/>
-    </row>
-    <row r="25" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="20"/>
-      <c r="C29" s="5"/>
-      <c r="E29" s="5"/>
-    </row>
-    <row r="30" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="13"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="13"/>
+    </row>
+    <row r="22" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="13"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="13"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="13"/>
+    </row>
+    <row r="24" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="20"/>
+    </row>
+    <row r="25" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="5"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="20"/>
+      <c r="D29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="5"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="5"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="5"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-    </row>
-    <row r="36" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="13"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="5"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-    </row>
-    <row r="37" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="13"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="5"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="13"/>
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-    </row>
-    <row r="38" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="13"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="5"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="13"/>
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
-    </row>
-    <row r="39" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="13"/>
+      <c r="J38" s="13"/>
+    </row>
+    <row r="39" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="13"/>
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
-    </row>
-    <row r="40" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="13"/>
+      <c r="J39" s="13"/>
+    </row>
+    <row r="40" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="5"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-    </row>
-    <row r="41" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="13"/>
+      <c r="J40" s="13"/>
+    </row>
+    <row r="41" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="5"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-    </row>
-    <row r="42" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="13"/>
+      <c r="J41" s="13"/>
+    </row>
+    <row r="42" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="5"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="13"/>
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-    </row>
-    <row r="43" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="13"/>
+      <c r="J42" s="13"/>
+    </row>
+    <row r="43" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="5"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
-    </row>
-    <row r="44" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="13"/>
+      <c r="J43" s="13"/>
+    </row>
+    <row r="44" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="5"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="13"/>
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
-    </row>
-    <row r="45" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="13"/>
+      <c r="J44" s="13"/>
+    </row>
+    <row r="45" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="5"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="13"/>
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
-    </row>
-    <row r="46" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="13"/>
+      <c r="J45" s="13"/>
+    </row>
+    <row r="46" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="5"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="13"/>
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
-    </row>
-    <row r="47" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="13"/>
+      <c r="J46" s="13"/>
+    </row>
+    <row r="47" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="13"/>
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
-    </row>
-    <row r="48" spans="3:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="13"/>
+      <c r="J47" s="13"/>
+    </row>
+    <row r="48" spans="4:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="13"/>
       <c r="H48" s="13"/>
       <c r="I48" s="13"/>
-    </row>
-    <row r="49" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="13"/>
+      <c r="J48" s="13"/>
+    </row>
+    <row r="49" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="5"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="13"/>
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
-    </row>
-    <row r="50" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
+      <c r="J49" s="13"/>
+    </row>
+    <row r="50" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="5"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="13"/>
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="13"/>
+      <c r="J50" s="13"/>
+    </row>
+    <row r="51" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C51" s="13"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="13"/>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C52" s="13"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="13"/>
+      <c r="D52" s="13"/>
+    </row>
+    <row r="53" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="13"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C54" s="13"/>
-    </row>
-    <row r="55" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="D54" s="13"/>
+    </row>
+    <row r="55" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" spans="3:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
